--- a/FINAL/CLAYCRAL E.I.R.L..xlsx
+++ b/FINAL/CLAYCRAL E.I.R.L..xlsx
@@ -17,10 +17,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -31,13 +31,27 @@
     <font>
       <b val="1"/>
     </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00FFFFFF"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0016365C"/>
+        <bgColor rgb="0016365C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -58,12 +72,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -436,262 +465,272 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="9" customWidth="1" min="1" max="1"/>
+    <col width="13" customWidth="1" min="2" max="2"/>
+    <col width="17" customWidth="1" min="3" max="3"/>
+    <col width="13" customWidth="1" min="4" max="4"/>
+    <col width="4" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="10" customWidth="1" min="8" max="8"/>
+  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>Cuenta</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>Nº documento</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>Referencia</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="4" t="inlineStr">
         <is>
           <t>Fecha de doc.</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>CL</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Demora</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Moneda</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Importe</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" s="5" t="inlineStr">
         <is>
           <t>4074733</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>2290314095</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>E1-0019-00156204</t>
         </is>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="D2" s="6" t="n">
         <v>45377</v>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" s="5" t="inlineStr">
         <is>
           <t>AB</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="F2" s="5" t="n">
         <v>65</v>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G2" s="5" t="inlineStr">
         <is>
           <t>PEN</t>
         </is>
       </c>
-      <c r="H2" t="n">
+      <c r="H2" s="7" t="n">
         <v>143.91</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" s="5" t="inlineStr">
         <is>
           <t>4074733</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="5" t="inlineStr">
         <is>
           <t>5890006701</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="5" t="inlineStr">
         <is>
           <t>E8-0020-00271398</t>
         </is>
       </c>
-      <c r="D3" s="2" t="n">
+      <c r="D3" s="6" t="n">
         <v>45344</v>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" s="5" t="inlineStr">
         <is>
           <t>RD</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="F3" s="5" t="n">
         <v>40</v>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G3" s="5" t="inlineStr">
         <is>
           <t>PEN</t>
         </is>
       </c>
-      <c r="H3" t="n">
+      <c r="H3" s="7" t="n">
         <v>0.51</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>4074733</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="5" t="inlineStr">
         <is>
           <t>6010408851</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="5" t="inlineStr">
         <is>
           <t>E1-0019-00159090</t>
         </is>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="D4" s="6" t="n">
         <v>45345</v>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" s="5" t="inlineStr">
         <is>
           <t>RV</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="F4" s="5" t="n">
         <v>35</v>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G4" s="5" t="inlineStr">
         <is>
           <t>PEN</t>
         </is>
       </c>
-      <c r="H4" t="n">
+      <c r="H4" s="7" t="n">
         <v>98.59</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" s="5" t="inlineStr">
         <is>
           <t>4074733</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="5" t="inlineStr">
         <is>
           <t>6010408477</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="5" t="inlineStr">
         <is>
           <t>E1-0019-00158716</t>
         </is>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="D5" s="6" t="n">
         <v>45345</v>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" s="5" t="inlineStr">
         <is>
           <t>RV</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="F5" s="5" t="n">
         <v>35</v>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="G5" s="5" t="inlineStr">
         <is>
           <t>PEN</t>
         </is>
       </c>
-      <c r="H5" t="n">
+      <c r="H5" s="7" t="n">
         <v>102.71</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" s="5" t="inlineStr">
         <is>
           <t>4074733</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="5" t="inlineStr">
         <is>
           <t>6010652609</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" s="5" t="inlineStr">
         <is>
           <t>E1-0019-00162424</t>
         </is>
       </c>
-      <c r="D6" s="2" t="n">
+      <c r="D6" s="6" t="n">
         <v>45377</v>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E6" s="5" t="inlineStr">
         <is>
           <t>RV</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="F6" s="5" t="n">
         <v>3</v>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="G6" s="5" t="inlineStr">
         <is>
           <t>PEN</t>
         </is>
       </c>
-      <c r="H6" t="n">
+      <c r="H6" s="7" t="n">
         <v>24.7</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" s="5" t="inlineStr">
         <is>
           <t>4074733</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" s="5" t="inlineStr">
         <is>
           <t>5890011749</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C7" s="5" t="inlineStr">
         <is>
           <t>E8-0019-00065483</t>
         </is>
       </c>
-      <c r="D7" s="2" t="n">
+      <c r="D7" s="6" t="n">
         <v>45385</v>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E7" s="5" t="inlineStr">
         <is>
           <t>RD</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="F7" s="5" t="n">
         <v>-1</v>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="G7" s="5" t="inlineStr">
         <is>
           <t>PEN</t>
         </is>
       </c>
-      <c r="H7" t="n">
+      <c r="H7" s="7" t="n">
         <v>0.51</v>
       </c>
     </row>

--- a/FINAL/CLAYCRAL E.I.R.L..xlsx
+++ b/FINAL/CLAYCRAL E.I.R.L..xlsx
@@ -20,7 +20,7 @@
     <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -36,8 +36,15 @@
       <sz val="10"/>
     </font>
     <font>
+      <name val="Arial"/>
       <b val="1"/>
       <color rgb="00FFFFFF"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <b val="1"/>
+      <sz val="10"/>
     </font>
   </fonts>
   <fills count="3">
@@ -72,7 +79,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -90,7 +97,10 @@
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -458,7 +468,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,7 +476,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="9" customWidth="1" min="1" max="1"/>
+    <col width="8" customWidth="1" min="1" max="1"/>
     <col width="13" customWidth="1" min="2" max="2"/>
     <col width="17" customWidth="1" min="3" max="3"/>
     <col width="13" customWidth="1" min="4" max="4"/>
@@ -734,6 +744,11 @@
         <v>0.51</v>
       </c>
     </row>
+    <row r="8">
+      <c r="H8" s="8" t="n">
+        <v>370.9299999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
